--- a/Delivery/Weekly Report/TH11A_DuongHoMinhTu_WeeklyReport.xlsx
+++ b/Delivery/Weekly Report/TH11A_DuongHoMinhTu_WeeklyReport.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6045" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Week1" sheetId="1" r:id="rId1"/>
+    <sheet name="Week2" sheetId="2" r:id="rId2"/>
+    <sheet name="Week3" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
   <si>
     <t>STT</t>
   </si>
@@ -98,6 +100,52 @@
   </si>
   <si>
     <t>Căn chỉnh đề cương theo tiêu chuẩn và kiểm tra lỗi chính tả</t>
+  </si>
+  <si>
+    <t>27/09/2016</t>
+  </si>
+  <si>
+    <t>đến: 03/10/2016</t>
+  </si>
+  <si>
+    <t>Tìm hiểu lịch sử nhận dạng vân tay</t>
+  </si>
+  <si>
+    <t>27/09/2016-29/09/2016</t>
+  </si>
+  <si>
+    <t>Tìm và đọc các bài báo nói về lịch sử nhận dạng vân tay</t>
+  </si>
+  <si>
+    <t>http://www.onin.com/fp/fphistory.html
+http://www.flashcardmachine.com/fingerprints-complete.html</t>
+  </si>
+  <si>
+    <t>Hoàn thành chương I</t>
+  </si>
+  <si>
+    <t>02/10/2016-03/10/2016</t>
+  </si>
+  <si>
+    <t>Kiểm tra lại chương I</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 04/10/2016</t>
+  </si>
+  <si>
+    <t>đến: 10/10/2016</t>
+  </si>
+  <si>
+    <t>Hoàn thành tài liệu tham khảo</t>
+  </si>
+  <si>
+    <t>liệt kê các tài liệu tham khảo</t>
+  </si>
+  <si>
+    <t>Review và sửa đổi lại chương I</t>
+  </si>
+  <si>
+    <t>Kiểm tra lại chương I và tài liệu tham khảo</t>
   </si>
 </sst>
 </file>
@@ -233,7 +281,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -265,6 +313,54 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -273,38 +369,14 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -402,6 +474,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -437,6 +526,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -615,8 +721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,22 +737,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -673,17 +779,17 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
       <c r="F6" s="2" t="s">
         <v>5</v>
       </c>
@@ -692,34 +798,34 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14" t="s">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="32" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" s="18" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="16" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>1</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -729,18 +835,18 @@
       <c r="E9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="22" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="18" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>2</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -752,16 +858,16 @@
       <c r="E10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="19"/>
-    </row>
-    <row r="11" spans="1:7" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:7" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>3</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="19" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="6"/>
@@ -769,49 +875,49 @@
       <c r="E11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" spans="1:7" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>4</v>
       </c>
-      <c r="B12" s="21"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="6"/>
       <c r="D12" s="7"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-    </row>
-    <row r="13" spans="1:7" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>5</v>
       </c>
-      <c r="B13" s="21"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="6"/>
       <c r="D13" s="7"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-    </row>
-    <row r="14" spans="1:7" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:7" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>6</v>
       </c>
-      <c r="B14" s="21"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="6"/>
       <c r="D14" s="7"/>
       <c r="E14" s="9"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="20"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="18"/>
     </row>
     <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>7</v>
       </c>
-      <c r="B15" s="15"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="6"/>
       <c r="D15" s="7"/>
       <c r="E15" s="10"/>
@@ -843,4 +949,376 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.625" customWidth="1"/>
+    <col min="2" max="2" width="57.375" customWidth="1"/>
+    <col min="3" max="3" width="27.625" customWidth="1"/>
+    <col min="4" max="4" width="24.625" customWidth="1"/>
+    <col min="5" max="5" width="28.75" customWidth="1"/>
+    <col min="6" max="6" width="76.75" customWidth="1"/>
+    <col min="7" max="7" width="32.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" s="16" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>1</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>2</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:7" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>3</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="27">
+        <v>42439</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>4</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.625" customWidth="1"/>
+    <col min="2" max="2" width="57.375" customWidth="1"/>
+    <col min="3" max="3" width="27.625" customWidth="1"/>
+    <col min="4" max="4" width="24.625" customWidth="1"/>
+    <col min="5" max="5" width="28.75" customWidth="1"/>
+    <col min="6" max="6" width="76.75" customWidth="1"/>
+    <col min="7" max="7" width="32.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="24"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>1</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="33">
+        <v>42500</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="33">
+        <v>42500</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="22"/>
+    </row>
+    <row r="10" spans="1:7" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>2</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="33">
+        <v>42531</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="33">
+        <v>42623</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:7" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>3</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="27">
+        <v>42653</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>4</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Delivery/Weekly Report/TH11A_DuongHoMinhTu_WeeklyReport.xlsx
+++ b/Delivery/Weekly Report/TH11A_DuongHoMinhTu_WeeklyReport.xlsx
@@ -1,22 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6045" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9150" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Week1" sheetId="1" r:id="rId1"/>
     <sheet name="Week2" sheetId="2" r:id="rId2"/>
     <sheet name="Week3" sheetId="5" r:id="rId3"/>
+    <sheet name="Week4" sheetId="7" r:id="rId4"/>
+    <sheet name="Week5" sheetId="9" r:id="rId5"/>
+    <sheet name="Week6" sheetId="11" r:id="rId6"/>
+    <sheet name="Week7" sheetId="12" r:id="rId7"/>
+    <sheet name="Week8" sheetId="14" r:id="rId8"/>
+    <sheet name="Week9" sheetId="15" r:id="rId9"/>
+    <sheet name="Week10" sheetId="18" r:id="rId10"/>
+    <sheet name="Week11" sheetId="17" r:id="rId11"/>
+    <sheet name="Week12" sheetId="19" r:id="rId12"/>
+    <sheet name="Week13" sheetId="20" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="129">
   <si>
     <t>STT</t>
   </si>
@@ -55,9 +65,6 @@
   </si>
   <si>
     <t>26/09/2016</t>
-  </si>
-  <si>
-    <t>TÊN ĐỀ TÀI : English Exam Online – Nhận dạng vân tay và ứng dụng vào hệ thống thi tiếng anh trực tuyến.</t>
   </si>
   <si>
     <t>Người thực hiện: Dương Hồ Minh Tú</t>
@@ -139,20 +146,456 @@
     <t>Hoàn thành tài liệu tham khảo</t>
   </si>
   <si>
-    <t>liệt kê các tài liệu tham khảo</t>
-  </si>
-  <si>
     <t>Review và sửa đổi lại chương I</t>
   </si>
   <si>
     <t>Kiểm tra lại chương I và tài liệu tham khảo</t>
+  </si>
+  <si>
+    <t>Liệt kê các tài liệu tham khảo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 11/10/2016</t>
+  </si>
+  <si>
+    <t>đến: 17/10/2016</t>
+  </si>
+  <si>
+    <t>TÊN ĐỀ TÀI :  Nhận dạng vân tay và ứng dụng vào hệ thống thi tiếng anh trực tuyến.</t>
+  </si>
+  <si>
+    <t>14/10/2016-16/10/2016</t>
+  </si>
+  <si>
+    <t>14/10/2016-15/10/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Các phương pháp phân loại vân tay 
+   + Phương pháp phân loại Henry
+   + Phương pháp phân loại dựa trên các đặc điểm tổng thể
+</t>
+  </si>
+  <si>
+    <t>1.http://dulieu.tailieuhoctap.vn/books/luan-van-de-tai/luan-van-de-tai-cd-dh/file_goc_772992.pdf
+'2.Nghiên cứu một số giải thuật phân tích đặc trưng vân tay và thử nghiệm trong nhận dạng vân tay
+&lt;http://dlib.ptit.edu.vn/bitstream/123456789/1118/1/TTLV%20Nguyen%20Thi%20Hue.pdf&gt;</t>
+  </si>
+  <si>
+    <t>PP Henry: Henrry đã định nghĩa điểm tâm là “điểm
+nằm về phía bắc nhất của đường vân nằm trong cùng nhất”. 
+'PP phân loại dựa trên các đặc điểm tổng thể : sử dụng phương pháp trích các điểm đặc trưng</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 18/10/2016</t>
+  </si>
+  <si>
+    <t>đến: 24/10/2016</t>
+  </si>
+  <si>
+    <t>19/10/2016-21/10/2016</t>
+  </si>
+  <si>
+    <t>Hoàn thành lời mở đầu + lời cảm ơn + tinh chỉnh lại đề cương</t>
+  </si>
+  <si>
+    <t>22/10/2016</t>
+  </si>
+  <si>
+    <t>23/10/2016</t>
+  </si>
+  <si>
+    <t>24/10/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Các phương pháp phân loại vân tay 
+   + Phương pháp phân loại Henry
+   + Phương pháp phân loại dựa trên các đặc điểm tổng thể
+'- Tìm hiểu thuật toán:
+   + Thuật toán trích chọn đặc trưng 
+   + Thuật toán đối sánh vân tay
+</t>
+  </si>
+  <si>
+    <t>Tiếp tục nghiên cứu 2 phương pháp phân loại và thuật toán</t>
+  </si>
+  <si>
+    <t>Tìm hiểu các đặc trưng trên ảnh vân tay</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25/10/2016</t>
+  </si>
+  <si>
+    <t>đến: 30/10/2016</t>
+  </si>
+  <si>
+    <t>26/10/2016-28/10/2016</t>
+  </si>
+  <si>
+    <t>29/10/2016</t>
+  </si>
+  <si>
+    <t>26/10/2016-29/10/2016</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa lại đề cương ( mục 4)</t>
+  </si>
+  <si>
+    <t>30/10/2016</t>
+  </si>
+  <si>
+    <t>Tìm hiểu được:
+- Trên vân tay có các điểm đặc trưng ( là những điểm đặc biệt mà vị trí của nó không giống trên các lớp vân tay khác).
+Có 2 loại đặc trưng:
+1: Singularity: trên vân tay có nhiều vùng mà ở đó có cấu trúc không giống với những vùng bình thường khác( thường thì có cấu trúc song song). Vùng như vậy gọi là Singularity:
+Có 2 loại điểm đó là core và delta
+Core thì có 1 số dạng như: Whorl, Left Loop, Twin Loop, Right Loop
+2: Minutiae: Khi dò theo từng đường vân ta sẽ thấy cò những điểm dường vân kết thúc hoặc rẽ nhánh. Những điểm này gọi chung là Minutiae.
+- Việc trích ra các đặc trưng này dựa vào các phương pháp xử lý ảnh thì có thể tìm ra được vị trí các điểm đặc trưng.
+- Tìm hiểu được phương pháp trích các điểm Singularity bằng phương pháp xác định hướng của đường vân từ đó tính toán ra được dạng của mỗi loại đặc trưng. Và trích các điểm Minutiae từ ảnh nhị phân hoặc trực tiếp từ ảnh xám</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 01/11/2016</t>
+  </si>
+  <si>
+    <t>đến: 07/11/2016</t>
+  </si>
+  <si>
+    <t>1. Trích các điểm singularity
++ Phương pháp xác định trường định hướng.
++ Xác định điểm singularity bằng chỉ số Poincare (Poincare index)</t>
+  </si>
+  <si>
+    <t>Công thức (1)</t>
+  </si>
+  <si>
+    <t>Công thức (2)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Np:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>tổng số điểm ảnh nằm trên đường cong C hướng tới điểm A</t>
+    </r>
+  </si>
+  <si>
+    <t>Công thức(3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ Phương pháp xác định trường định hướng
+ý tưởng bài toán: 
+- Chia nhỏ ảnh vân tay thành từng khối nhỏ và xử lý trên từng phần nhỏ kích thước WxW.
+- Tính gradient theo 2 hướng x(Gx) và y(Gy)  tại mỗi điểm thuộc từng phần nhỏ.
+- Từ đó suy ra được hướng của điểm chính giữa  được xác định theo công thức(1)
++ Xác định điểm singularity bằng chỉ số poincare
+- Chỉ số poincare là gì? 
+A[i,j] là điểm bất kỳ của ảnh vân tay, tồn tại một đường cong khép kín C xung quanh điểm A. Khi dó Poincare Index là tổng tổng đại số các độ sai lệch hướng của các điểm liền kề nhau trên đường cong C. 
+Để tính poincareIndex sử dụng công thức(2)
+- Xác định điểm Singularity thông qua chỉ số Poincare theo công thức(3)
++ Thiết kế thuật toán toán cho bài toán tìm điểm singularity ( đang thực hiện)
+</t>
+  </si>
+  <si>
+    <t>2/11/2016-4/11/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2/11/2016-4/11/2016
+</t>
+  </si>
+  <si>
+    <t>5/11/2016-6/11/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 08/11/2016</t>
+  </si>
+  <si>
+    <t>đến: 14/11/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ Phương pháp xác định trường định hướng
++ Thiết kế thuật toán toán cho bài toán tìm điểm singularity ( đã xong)
+</t>
+  </si>
+  <si>
+    <t>Hoàn thiện đề cương + chương I</t>
+  </si>
+  <si>
+    <t>9/11/2016-11/11/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9/11/2016-10/11/2016
+</t>
+  </si>
+  <si>
+    <t>14/11/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 15/11/2016</t>
+  </si>
+  <si>
+    <t>đến: 21/11/2016</t>
+  </si>
+  <si>
+    <t>-Tìm hiểu mô hình thi tiếng anh cũ và sự cải tiến trong mô hình mới
+- Thực hiện xây dựng CSDL</t>
+  </si>
+  <si>
+    <t>16/11/2016-&gt;19/11/2016</t>
+  </si>
+  <si>
+    <t>16/11/2016-17/11/2016</t>
+  </si>
+  <si>
+    <t>- Mô hình cũ: cụ thể tại trung tâm tiếng anh IIG 75-Giang Văn Minh. Quá trình xác thực thí sinh trải qua nhiều quy trình khác nhau:Khi đến thi thí sinh phải cầm cmnd + thẻ dự thi. Đến nơi thi các giám thị kiểm tra thẻ dự thi, ảnh trên cmn và thực hiện thủ công. Khi áp dụng nhận dạng vân tay hệ thống vân tay thí sinh đến dự thi có thể chỉ cần chiếc điện thoại có chứa thông tin dự thi và xác thực qua vân tay đã được đăng ký thi (tất nhiên là phải khớp với vân tay trên CMND).
+- Xây dựng mô hình thực thể E-R.. Xây dựng các trường dữ liệu cần thiết cho hệ thống thi tiếng anh online áp dụng nhận dạng vân tay vào xác thực thí sinh.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 22/11/2016</t>
+  </si>
+  <si>
+    <t>đến: 28/11/2016</t>
+  </si>
+  <si>
+    <t>-Xây dựng CSDL</t>
+  </si>
+  <si>
+    <t>23/11/2016-&gt;24/11/2016</t>
+  </si>
+  <si>
+    <t>24/11/2016-26/11/2016</t>
+  </si>
+  <si>
+    <t>Xây dựng mô hình tổng quan CSDL, sơ đồ quan hệ, chi tiết các trường trong CSDL</t>
+  </si>
+  <si>
+    <t>-Thực hiện trích rút các điểm minutiae</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Làm nổi ảnh vân tay + lập trình</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Các ảnh vân tay thường được lấy bằng cách sử dụng mực in hoặc từ các sensor lấy vân tay. 
+Việc lấy ảnh vân tay bằng mực không tránh khỏi các điều kiện tự nhiên tác động nên chất lương ảnh sẽ thấp hơn và không được đồng đều như lấy vân tay từ các sensor.
+Giải pháp đưa ra là sử dụng bộ lọc Gabor để cải thiện chất lương ảnh vân tay
+Hàm Gabor là công cụ hữu dụng trong việ xử lý ảnh. Nó có đặc tính chọn lọc trong miền không gian lẫn tần số.
+Hàm Gabor 2D có dạng (1)
+Các bước thực hiện
+1. Chuẩn hóa mức xám: Nếu I(x,y) là mức xám tại điểm (x,y) của ảnh I thì mức xám chuẩn hóa Ni(x,y) được xác định theo công thức (2)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Chú ý:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Nếu mức xám của các vùng khác nhau trên ảnh I không đồng đều thì có thể chia I thành các khối nhỏ hơn và chuẩn hóa theo từng khối&lt;ảnh (3): là ảnh I và ảnh chuẩn hóa của nó&gt;
+2. Xác định trường định hướng theo phương pháp đã nêu
+3. Sử dụng hàm lọc Gabor cho ảnh đã chuẩn hóa trong miền tần số
+- Chia ảnh cần lọc thành từng khối nhỏ kích thước WxW
+- Xác định hướng của khối ( dựa vào trường định hướng)
+- Hướng phi của bộ lọc là hướng của khối
+- Sử dụng phép biến đổi FFT và phép biến đổi IFFT cho từng khối ảnh và hàm Gabor 
+&lt;hình (4) là kết quả lọc bằng hàm Gabor với T=0.6, sigma(x)=1 sigma(y)=2&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Trong đó: 
+Ф là hướng của bộ lọc
+T là chu kỳ của hàm cos ( thường có giá trị [0,1])
+σx,σy là các độ lệch chuẩn (thường có giá trị [0,4])</t>
+  </si>
+  <si>
+    <t>Trong đó: Mo,Vo là mean và variance mong muốn (thường là 100)
+Mi,Vi là mean và variance của ảnh I</t>
+  </si>
+  <si>
+    <t>Bên trái: ảnh I
+Bên phải: ảnh chuẩn hóa của I</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 29/11/2016</t>
+  </si>
+  <si>
+    <t>đến: 05/12/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 06/12/2016</t>
+  </si>
+  <si>
+    <t>đến: 12/12/2016</t>
+  </si>
+  <si>
+    <t>Đối sánh (matching)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Hầu hết các phương pháp nhận dạng vân tay đề dựa vào việc đối sánh vị trí các điểm đặc trưng. Để nâng cao hiệu quả đối sánh người ta có sử dụng đặc tính như Orientationfiled hoặc density map.
+Hướng giải quyết: 
+Giả sử I và I' lần lượt là các ảnh vân tay mẫu và ảnh vân tay cần đối sánh, m={x,y,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>θ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">} là các điểm đặc trưng được xác định bởi tọa độ (x,y) và hướng </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>θ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (ảnh 1)
+Khi đó, điểm m' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ϵ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>I' được coi là giống với điểm m ϵ I nếu saiu độ lệch về không gian và độ sai lệch về hướng nhỏ hơn các giá trị ngưỡng ro và θo: (ảnh 2)
+Nếu (tống số điểm của I - số điểm giống nhau)/Tổng số điểm của I &lt; ngưỡng T thì I' được coi là giống I. trong đó T là phần trăm số điểm sai lệch cho phép</t>
+    </r>
+  </si>
+  <si>
+    <t>Trong đó: m,n lần lượt là số điểm đặc trung của I và I'</t>
+  </si>
+  <si>
+    <t>30/11/2016-&gt;02/12/2016</t>
+  </si>
+  <si>
+    <t>02/12/2016-&gt;04/12/2016</t>
+  </si>
+  <si>
+    <t>07/12/2016-09/12/2016</t>
+  </si>
+  <si>
+    <t>10/12/2016-11/12/2016</t>
+  </si>
+  <si>
+    <t>10/12/2016-&gt;12/12/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 13/12/2016</t>
+  </si>
+  <si>
+    <t>Ghép chương trình và thử nghiệm</t>
+  </si>
+  <si>
+    <t>Chuẩn bị + xem lại chương 1, đề cương</t>
+  </si>
+  <si>
+    <t>04/12/2016-15/12/2016</t>
+  </si>
+  <si>
+    <t>17/12/2016</t>
+  </si>
+  <si>
+    <t>đến: 22/12/2016</t>
+  </si>
+  <si>
+    <t>18/12/2016-&gt;21/12/2016</t>
+  </si>
+  <si>
+    <t>21/12/2016-22/12/2016</t>
+  </si>
+  <si>
+    <t>22/12/2016</t>
+  </si>
+  <si>
+    <t>Kiểm thử trên một số mẫu vân tay.</t>
+  </si>
+  <si>
+    <t>Nhận dạng vân tay</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> D.Maltoni, D.Maio, A.K.Jain, S.Prabhakar, ”Singularity and Core Detection” Extract from “Handbook of Fingerprint Recognition”, Springer, New York, 2003
+'</t>
+  </si>
+  <si>
+    <t>Có 2 phương pháp chính để tìm các điểm minutiae là trích rút từ ảnh binary hoặc trích rút trực tiếp trên ảnh xám
+- Trích rút từ ảnh binary:
++ Ý tưởng bài toán: 
+* Dùng các bộ lọc lên ảnh mức xám để phát hiện và làm mảnh đường vân dưới dạng 1px, biến đổi thành ảnh binary tương ứng.
+* Tìm điểm minutiae như sau: 
+Giả sử ta có điểm D(x,y) là điểm trên đường vân được làm mảnh và lấy thêm 8 điểm bao quanh nó.
+Nếu (1) thì D là điểm kết thúc
+Nếu (2) thì D là điểm rẽ nhánh
+-Trích rút từ ảnh xám
++Dò theo đường vân (Ridge line following)
+Giả sử I là 1 ảnh xám có kích thước mxn và néu coi chiều thứ 3 z là mức xám tại điểm (I,j) thì bề mặt của I có dạng (3).
+&lt; Đường vân là tập hợp các điểm cực đại dọc theo một hướng xác định=&gt; bài toán đặt ra yêu cầu tìm các điểm cực đại dọc theo hướng đường vân)
+* Hướng đi bài toán: 
+1. Lấy 1 điểm bất kì (is,js) trên ảnh I.
+2. Tìm hướng θs tại điểm  (is,js)
+3. Tìm điểm cực đại (ic,jc) gần (is,js) nhất
+4. Tìm hướng θc tại điểm (ic,jc)
+5. Dịch chuyển theo hướng θc 1 đoạn µ
+6. TInh chỉnh lại điểm cực đại  (ic,jc) và hướng θc
+7. Thực hiện quá trình này để dò theo đường vân (ridge following) cho đền khi không phát hiện được điểm cực đại (ic,jc) thì dó là điểm Ridge Ending hoặc chạm vào đường khác thì dó là điểm Bifurcation . Mỗi đường vân khi dò được thì sẽ được gán nhãn.
+8. TIếp theo chọn điểm (is,js) khác  và thực hiện lại quá trình trên cho đền khi dò hết tất cả đường vân</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +662,25 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -281,7 +743,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -361,13 +823,34 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -375,8 +858,102 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="3" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -396,6 +973,1240 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2886075</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD77E68E-B855-42A8-96B3-9241BEAE245F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1114425" y="4857750"/>
+          <a:ext cx="2714625" cy="619125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1885950</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7C102A3-AB37-4C72-AAED-1273B8703EF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1228725" y="6791325"/>
+          <a:ext cx="1600200" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9EA95BE-EE08-4322-95AA-6C685CCC053D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1019175" y="7362825"/>
+          <a:ext cx="1924050" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2076450</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B610B4E-9099-4B5B-AD8B-E7635BB27327}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1019175" y="8162925"/>
+          <a:ext cx="2000250" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC927889-A0DA-45F0-A7B7-5D681344B467}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1085850" y="9134475"/>
+          <a:ext cx="3743325" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCA1ADC1-0B05-4EED-AB82-DD8D82C0A94D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1171575" y="9163050"/>
+          <a:ext cx="600075" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20A2FCEC-BF38-4336-8A89-00D9CC68929C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1190625" y="9867900"/>
+          <a:ext cx="600075" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2756499</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CEF6E2B-0420-4DAA-BD82-E4621E7C8037}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1095375" y="10544175"/>
+          <a:ext cx="2604099" cy="1533525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3733800</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FDCA55B-5F98-4EE1-B344-50D876CCE1A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1133475" y="8220075"/>
+          <a:ext cx="3543300" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>495300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1676400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3300934F-CCAD-4099-AE5B-CD3650209438}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1076325" y="9001125"/>
+          <a:ext cx="1543050" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1781175</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC8CBCF1-79BF-4F2F-9BF7-8523FCD80BE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1047750" y="9363075"/>
+          <a:ext cx="1676400" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E551052E-DFA1-4429-AF04-87C0F09E85E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1104900" y="9991725"/>
+          <a:ext cx="4086225" cy="1400175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>102055</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3759412</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E80E33E-9C19-4C51-99D5-B656DC0E2C44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1045030" y="11687175"/>
+          <a:ext cx="3657357" cy="2219325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2166200</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33C5F1A7-1684-48CF-902E-4205C28C871A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1590675" y="14116050"/>
+          <a:ext cx="1518500" cy="2200275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4FC2222-6BB6-4E71-A76C-505ED2793E59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1152525" y="5924550"/>
+          <a:ext cx="3667125" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>476250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDFD173E-847C-4B4F-A9A9-D1D928465833}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1066800" y="6381750"/>
+          <a:ext cx="4057650" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3552825</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2048CEE-5E3F-4B4B-9C19-67B40AA92149}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1038225" y="7629525"/>
+          <a:ext cx="3457575" cy="542925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2276475</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3850DA25-839F-400B-AA81-5D58B13E7459}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1009650" y="8153400"/>
+          <a:ext cx="2209800" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -721,49 +2532,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.625" customWidth="1"/>
-    <col min="2" max="2" width="57.375" customWidth="1"/>
-    <col min="3" max="3" width="27.625" customWidth="1"/>
-    <col min="4" max="4" width="24.625" customWidth="1"/>
-    <col min="5" max="5" width="28.75" customWidth="1"/>
-    <col min="6" max="6" width="76.75" customWidth="1"/>
-    <col min="7" max="7" width="32.75" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="57.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" customWidth="1"/>
+    <col min="6" max="6" width="76.7109375" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="A2" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -779,17 +2590,17 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
       <c r="F6" s="2" t="s">
         <v>5</v>
       </c>
@@ -798,26 +2609,26 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30" t="s">
+      <c r="A7" s="66"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="68" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="32"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="68"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
@@ -826,40 +2637,40 @@
         <v>1</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="16" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>2</v>
       </c>
       <c r="B10" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="D10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="E10" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G10" s="17"/>
     </row>
@@ -868,7 +2679,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
@@ -876,7 +2687,7 @@
         <v>12</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G11" s="15"/>
     </row>
@@ -951,53 +2762,1544 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView topLeftCell="B8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="57.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" customWidth="1"/>
+    <col min="6" max="6" width="76.7109375" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="53"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="66"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="66"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" s="16" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>1</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="33"/>
+    </row>
+    <row r="10" spans="1:7" s="16" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>2</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="31"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="G10" s="63" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>3</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>4</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="49"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="49"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="49"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="70">
+        <v>1</v>
+      </c>
+      <c r="B16" s="69"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="70"/>
+      <c r="B17" s="69"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="70"/>
+      <c r="B18" s="69"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="49"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="70">
+        <v>2</v>
+      </c>
+      <c r="B20" s="70"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="70"/>
+      <c r="B21" s="70"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="70"/>
+      <c r="B22" s="70"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="49"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="70"/>
+      <c r="B25" s="49"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="70"/>
+      <c r="B26" s="49"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="70"/>
+      <c r="B27" s="49"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="70"/>
+      <c r="B28" s="49"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="70"/>
+      <c r="B29" s="49"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="70"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="70"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="A24:A31"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G10" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G56"/>
+  <sheetViews>
+    <sheetView topLeftCell="C12" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="57.42578125" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" customWidth="1"/>
+    <col min="6" max="6" width="76.7109375" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="50"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="66"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="66"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" s="16" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="31">
+        <v>42472</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" s="62" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>2</v>
+      </c>
+      <c r="B10" s="32"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="33"/>
+    </row>
+    <row r="11" spans="1:7" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>3</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>4</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="49"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="49"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="49"/>
+    </row>
+    <row r="16" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="70">
+        <v>1</v>
+      </c>
+      <c r="B16" s="69"/>
+      <c r="C16" s="71" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="70"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="71"/>
+    </row>
+    <row r="18" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="70"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="71"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="70"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="71"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="70"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="71"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="70"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="71"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="70"/>
+      <c r="B22" s="16"/>
+    </row>
+    <row r="23" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="70">
+        <v>2</v>
+      </c>
+      <c r="B23" s="69"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="71" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="70"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="71"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="70"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="71"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="70"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="71"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="70"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="71"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="70"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="71"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="70"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="71"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="70"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="71"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="70"/>
+      <c r="B31" s="69"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="71"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="70">
+        <v>3</v>
+      </c>
+      <c r="B32" s="69"/>
+      <c r="C32" s="71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="70"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="72"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="70"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="72"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="70"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="72"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="70"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="72"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="70"/>
+      <c r="B37" s="69"/>
+      <c r="C37" s="72"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="70"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="72"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="70"/>
+      <c r="B39" s="69"/>
+      <c r="C39" s="72"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="70"/>
+      <c r="B40" s="69"/>
+      <c r="C40" s="72"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="70"/>
+      <c r="B41" s="69"/>
+      <c r="C41" s="72"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="70"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="72"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="70"/>
+      <c r="B43" s="69"/>
+      <c r="C43" s="72"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="70"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="72"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="70">
+        <v>4</v>
+      </c>
+      <c r="B45" s="69"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="70"/>
+      <c r="B46" s="69"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="70"/>
+      <c r="B47" s="69"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="70"/>
+      <c r="B48" s="69"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="70"/>
+      <c r="B49" s="69"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="70"/>
+      <c r="B50" s="69"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="70"/>
+      <c r="B51" s="69"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="70"/>
+      <c r="B52" s="69"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="70"/>
+      <c r="B53" s="69"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="70"/>
+      <c r="B54" s="69"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="70"/>
+      <c r="B55" s="69"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="70"/>
+      <c r="B56" s="69"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A23:A31"/>
+    <mergeCell ref="B23:C31"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="A45:A56"/>
+    <mergeCell ref="B45:B56"/>
+    <mergeCell ref="D23:D31"/>
+    <mergeCell ref="A32:A44"/>
+    <mergeCell ref="B32:B44"/>
+    <mergeCell ref="C32:C44"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G9" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G56"/>
+  <sheetViews>
+    <sheetView topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="57.42578125" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" customWidth="1"/>
+    <col min="6" max="6" width="76.7109375" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="53"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="66"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="66"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" s="16" customFormat="1" ht="232.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="59">
+        <v>1</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" s="62" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>2</v>
+      </c>
+      <c r="B10" s="32"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="33"/>
+    </row>
+    <row r="11" spans="1:7" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>3</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>4</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="49"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="49"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="49"/>
+    </row>
+    <row r="16" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="70">
+        <v>1</v>
+      </c>
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="72" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="72"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="70"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+    </row>
+    <row r="18" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="70"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="70"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="70"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="70"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="70"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72"/>
+    </row>
+    <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="70">
+        <v>2</v>
+      </c>
+      <c r="B23" s="69"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="60"/>
+    </row>
+    <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="70"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="60"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="70"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="60"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="70"/>
+      <c r="B26" s="69"/>
+      <c r="D26" s="60"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="70"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="60"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="70"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="60"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="70"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="60"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="60"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="60"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="60"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="16"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="61"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="16"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="61"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="16"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="61"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="16"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="61"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="16"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="61"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="16"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="61"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="16"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="61"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="16"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="61"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="16"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="61"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="16"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="61"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="16"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="61"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="16"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="61"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="16"/>
+      <c r="B45" s="49"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="16"/>
+      <c r="B46" s="49"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="16"/>
+      <c r="B47" s="49"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="16"/>
+      <c r="B48" s="49"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="16"/>
+      <c r="B49" s="49"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="16"/>
+      <c r="B50" s="49"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="16"/>
+      <c r="B51" s="49"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="16"/>
+      <c r="B52" s="49"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="16"/>
+      <c r="B53" s="49"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="16"/>
+      <c r="B54" s="49"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="16"/>
+      <c r="B55" s="49"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="16"/>
+      <c r="B56" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B16:C22"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="D16:E22"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G9" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="57.42578125" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" customWidth="1"/>
+    <col min="6" max="6" width="76.7109375" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="56"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="66"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="66"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="59">
+        <v>1</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="G9" s="33"/>
+    </row>
+    <row r="10" spans="1:7" s="16" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>2</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="31"/>
+      <c r="D10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10" s="33"/>
+    </row>
+    <row r="11" spans="1:7" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>3</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>4</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="49"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="49"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="49"/>
+    </row>
+    <row r="16" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+    </row>
+    <row r="18" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="16"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+    </row>
+    <row r="23" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="60"/>
+    </row>
+    <row r="24" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="60"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="60"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="D26" s="60"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="60"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="60"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="60"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="60"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="60"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="60"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="16"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="61"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="16"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="61"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="16"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="61"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="16"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="61"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="16"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="61"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="16"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="61"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="16"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="61"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="16"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="61"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="16"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="61"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="16"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="61"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="16"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="61"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="16"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="61"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="16"/>
+      <c r="B45" s="49"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="16"/>
+      <c r="B46" s="49"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="16"/>
+      <c r="B47" s="49"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="16"/>
+      <c r="B48" s="49"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="16"/>
+      <c r="B49" s="49"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="16"/>
+      <c r="B50" s="49"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="16"/>
+      <c r="B51" s="49"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="16"/>
+      <c r="B52" s="49"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="16"/>
+      <c r="B53" s="49"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="16"/>
+      <c r="B54" s="49"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="16"/>
+      <c r="B55" s="49"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="16"/>
+      <c r="B56" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.625" customWidth="1"/>
-    <col min="2" max="2" width="57.375" customWidth="1"/>
-    <col min="3" max="3" width="27.625" customWidth="1"/>
-    <col min="4" max="4" width="24.625" customWidth="1"/>
-    <col min="5" max="5" width="28.75" customWidth="1"/>
-    <col min="6" max="6" width="76.75" customWidth="1"/>
-    <col min="7" max="7" width="32.75" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="57.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" customWidth="1"/>
+    <col min="6" max="6" width="76.7109375" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="A2" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>16</v>
       </c>
       <c r="E3" s="12"/>
     </row>
@@ -1006,24 +4308,24 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
       <c r="F6" s="20" t="s">
         <v>5</v>
       </c>
@@ -1032,26 +4334,26 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30" t="s">
+      <c r="A7" s="66"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="68" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="32"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="68"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
@@ -1060,20 +4362,20 @@
         <v>1</v>
       </c>
       <c r="B9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="G9" s="22" t="s">
         <v>31</v>
-      </c>
-      <c r="G9" s="22" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1081,17 +4383,17 @@
         <v>2</v>
       </c>
       <c r="B10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G10" s="17"/>
     </row>
@@ -1100,7 +4402,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
@@ -1108,7 +4410,7 @@
         <v>42439</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G11" s="15"/>
     </row>
@@ -1142,49 +4444,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.625" customWidth="1"/>
-    <col min="2" max="2" width="57.375" customWidth="1"/>
-    <col min="3" max="3" width="27.625" customWidth="1"/>
-    <col min="4" max="4" width="24.625" customWidth="1"/>
-    <col min="5" max="5" width="28.75" customWidth="1"/>
-    <col min="6" max="6" width="76.75" customWidth="1"/>
-    <col min="7" max="7" width="32.75" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="57.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" customWidth="1"/>
+    <col min="6" max="6" width="76.7109375" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="A2" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="24"/>
       <c r="C3" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="24" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>16</v>
       </c>
       <c r="E3" s="24"/>
     </row>
@@ -1193,24 +4495,24 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
         <v>36</v>
       </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
       <c r="F6" s="25" t="s">
         <v>5</v>
       </c>
@@ -1219,26 +4521,26 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30" t="s">
+      <c r="A7" s="66"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="68" t="s">
         <v>4</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="32"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="68"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
@@ -1247,17 +4549,17 @@
         <v>1</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="33">
+        <v>32</v>
+      </c>
+      <c r="C9" s="31">
         <v>42500</v>
       </c>
       <c r="D9" s="7"/>
-      <c r="E9" s="33">
+      <c r="E9" s="31">
         <v>42500</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G9" s="22"/>
     </row>
@@ -1266,17 +4568,17 @@
         <v>2</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="33">
+        <v>37</v>
+      </c>
+      <c r="C10" s="31">
         <v>42531</v>
       </c>
       <c r="D10" s="7"/>
-      <c r="E10" s="33">
+      <c r="E10" s="31">
         <v>42623</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G10" s="17"/>
     </row>
@@ -1285,7 +4587,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="7"/>
@@ -1293,7 +4595,7 @@
         <v>42653</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G11" s="15"/>
     </row>
@@ -1321,4 +4623,1273 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="57.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" customWidth="1"/>
+    <col min="6" max="6" width="76.7109375" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="28"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="66"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="66"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>1</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="31">
+        <v>42714</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="31">
+        <v>42714</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="22"/>
+    </row>
+    <row r="10" spans="1:7" s="16" customFormat="1" ht="198" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>2</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>3</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>4</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView topLeftCell="C8" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="57.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" customWidth="1"/>
+    <col min="6" max="6" width="76.7109375" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="34"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="66"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="66"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" s="16" customFormat="1" ht="198" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>1</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="16" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>2</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="33"/>
+    </row>
+    <row r="11" spans="1:7" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>3</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>4</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="57.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" customWidth="1"/>
+    <col min="6" max="6" width="76.7109375" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="37"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="66"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="66"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" s="16" customFormat="1" ht="313.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>1</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="62" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>2</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="31"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="33"/>
+    </row>
+    <row r="11" spans="1:7" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>3</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>4</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G9" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="57.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" customWidth="1"/>
+    <col min="6" max="6" width="76.7109375" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+    </row>
+    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="40"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="66"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="66"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" s="16" customFormat="1" ht="330" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>1</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="H9" s="63" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>2</v>
+      </c>
+      <c r="B10" s="32"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="33"/>
+    </row>
+    <row r="11" spans="1:8" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>3</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:8" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>4</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="69"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="69"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="69"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="69"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="69"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="69"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="69"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="69"/>
+      <c r="C24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="69"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="69"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="69"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="69"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="69"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="69"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="69"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" s="69"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="69"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="69"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="69"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B28"/>
+    <mergeCell ref="B29:B35"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H9" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="57.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" customWidth="1"/>
+    <col min="6" max="6" width="76.7109375" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="43"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="66"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="66"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" s="16" customFormat="1" ht="66" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>1</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="62" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>2</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="33"/>
+    </row>
+    <row r="11" spans="1:7" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>3</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>4</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="49"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="49"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="49"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="49"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="49"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="49"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="49"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="49"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="49"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="49"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="49"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="49"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="49"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="49"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="49"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="49"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="49"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="49"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G9" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="57.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" customWidth="1"/>
+    <col min="6" max="6" width="76.7109375" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="46"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="66"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="66"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" s="16" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>1</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="62" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>2</v>
+      </c>
+      <c r="B10" s="32"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="33"/>
+    </row>
+    <row r="11" spans="1:7" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>3</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" s="16" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>4</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="49"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="49"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="49"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="49"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="49"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="49"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="49"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="49"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="49"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="49"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="49"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="49"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="49"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="49"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="49"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="49"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="49"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="49"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G9" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>